--- a/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-13,56</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>103,02%</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>182,61%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,73%</t>
+          <t>110,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>193,79%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>99,97%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>96,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>237,55%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,75</t>
+          <t>-1,37; 4,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,27</t>
+          <t>0,28; 4,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,91</t>
+          <t>1,59; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 1,5</t>
+          <t>0,79; 5,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 205,89</t>
+          <t>1,71; 7,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 312,52</t>
+          <t>4,08; 10,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,34; 469,74</t>
+          <t>-40,98; 219,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,19; 2,83</t>
+          <t>-2,07; 313,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53,48; 494,19</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 224,32</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 214,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>92,04; 518,65</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>289,28%</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>547,59%</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>221,09%</t>
+          <t>303,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>559,72%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>264,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>213,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>198,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>191,71%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,94</t>
+          <t>2,23; 7,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,45</t>
+          <t>1,82; 5,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,64</t>
+          <t>2,05; 7,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 26,27</t>
+          <t>2,09; 11,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,75; 902,39</t>
+          <t>2,21; 12,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,1; 1874,62</t>
+          <t>3,09; 10,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,6; 645,15</t>
+          <t>76,47; 1147,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-49,33; 107,03</t>
+          <t>104,9; 2660,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71,32; 809,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34,8; 739,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 575,23</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62,22; 539,92</t>
         </is>
       </c>
     </row>
@@ -820,17 +932,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>318,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>249,24%</t>
+          <t>180,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>21,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>191,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>204,4%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 16,75</t>
+          <t>0,31; 13,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 5,44</t>
+          <t>-3,97; 6,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,37</t>
+          <t>-0,3; 10,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,53; 1413,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,98; 249,22</t>
+          <t>0,18; 13,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,14; 1657,9</t>
+          <t>-26,12; 1308,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-58,99; 256,85</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-34,39; 1898,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-23,94; 1272,12</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,23</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>141,22%</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>141,39%</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>205,39%</t>
+          <t>134,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,89%</t>
+          <t>144,55%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>217,18%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>124,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>116,49%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>214,89%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,96</t>
+          <t>1,48; 4,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,9</t>
+          <t>1,43; 4,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,06</t>
+          <t>2,25; 5,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,67; 1,69</t>
+          <t>2,08; 6,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,03; 302,47</t>
+          <t>2,8; 7,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,3; 303,13</t>
+          <t>4,36; 9,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,34; 390,5</t>
+          <t>30,28; 301,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 7,47</t>
+          <t>52,11; 296,6</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88,66; 406,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 255,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49,79; 217,54</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>108,84; 386,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_9_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,36</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>59,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>110,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>193,79%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>99,97%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>96,91%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>237,55%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.603365504367712</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.363410758476493</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.096791057443307</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.214807953933554</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4.398929033425749</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>7.078158205499861</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5413593197797969</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.123462026628277</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.836978310631158</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9996924400695211</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.9805381426047666</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>2.375091832369466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 4,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 4,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 5,09</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 5,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 7,03</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 10,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-40,98; 219,3</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,07; 313,98</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>53,48; 494,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>13,9; 224,32</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>26,74; 214,34</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>92,04; 518,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.713981727043315</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.2052797883613845</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.493816987432239</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.7855680284781803</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.780252844245476</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>4.046548954662156</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4590342643473372</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03597758628767221</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.4651995660029632</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1390488304985434</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.2781239051372019</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.8443579074043466</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.827182330568529</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.246356985131826</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.91090906798272</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.581494399668338</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.110108258048324</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>10.81238454846179</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.081219782441756</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.2699256019203</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.704464591070689</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.243233871895987</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.17456442265806</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>5.125606534199155</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,65</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,2</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>303,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>559,72%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>264,25%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>213,52%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>198,62%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>191,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,23; 7,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 5,35</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 7,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 11,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 12,68</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 10,19</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>76,47; 1147,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>104,9; 2660,99</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>71,32; 809,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>34,8; 739,24</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>27,85; 575,23</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>62,22; 539,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.920573830138889</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.49176171247642</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.236840415008676</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.654075547076263</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.998735350722472</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>6.577240524111594</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.918685414745173</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>5.74273574912495</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.720708461071874</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.13519812857367</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>1.957784452261554</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>2.133134247807571</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>180,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>21,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>191,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>204,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.038859074708938</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.814014860852895</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.060431163033815</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.091321717997626</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>2.057852803896345</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.377488015168218</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.6950684330410136</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1.050966728709283</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.7904370263584558</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.3480310181563042</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.2596325278414844</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.7300140349471137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 13,39</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 10,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 13,48</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-26,12; 1308,96</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-58,99; 256,85</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 1898,34</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-23,94; 1272,12</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.514260754505266</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.313181582369907</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.689099848217337</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.95970124658303</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.63668454537392</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>10.65852670466998</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>10.81776849950944</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>26.98331297618262</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>8.185708361515173</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>7.392380483496838</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>5.700882021584023</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>6.032492949804924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>134,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>144,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>217,18%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>124,16%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>116,49%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>214,89%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.997266022604707</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.287885794933155</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.9571354131015</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>5.986122339134522</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.918413894639502</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2854953229118234</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.340867150286931</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>1.963346155395405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 4,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 4,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 5,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 6,05</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 7,2</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 9,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>30,28; 301,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>52,11; 296,6</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>88,66; 406,33</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>48,15; 255,49</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>49,79; 217,54</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>108,84; 386,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.702703378826097</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.535100686050891</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4072437903675626</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>0.1975705502654001</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.08677915113159701</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5703181248725316</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1888003531342488</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.2822072207905197</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.10020550107124</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.293007728736096</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.62078211916619</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>13.34196016652133</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>15.92838954597427</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.742981882380168</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>22.03632325994771</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>12.08490288432159</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3.238007890340787</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.679971124666487</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.743412828477287</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.963203588870591</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.993426685295605</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.758744056793716</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.414740720555663</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.490303660313035</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.218433136732878</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.24164297848548</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.170632130299652</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>2.230573851221251</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.617355486140645</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.438850574170221</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.285792174563399</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.082602895617634</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.848318536781446</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.532379812696113</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3026103062528006</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5197945979109881</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.9276839380683458</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.4814682763898993</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.4966259773933241</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>1.107047971736539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.90766261295344</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.080592887213446</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.249885602191706</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.047258070216019</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>7.240901582469475</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.16263183884101</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.167829418964581</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.075918918486985</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>4.003670500334717</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.554882429512583</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.186749077020389</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>3.956129622136502</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
